--- a/INTLINE/data/542/BOKNA/Quarterly_Nominal_NSA.xlsx
+++ b/INTLINE/data/542/BOKNA/Quarterly_Nominal_NSA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55DE51BC-CFE8-4F9A-95F0-8FE1F6F1BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7D01257-83ED-4161-A432-0B1FE882273B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -990,775 +990,775 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3611,137 +3611,137 @@
       </c>
     </row>
     <row r="2" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E2" s="6">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="F2" s="7">
-        <v>27.7</v>
+        <v>27.66</v>
       </c>
       <c r="G2" s="8">
-        <v>21.4</v>
+        <v>21.37</v>
       </c>
       <c r="H2" s="9">
         <v>30.6</v>
       </c>
       <c r="I2" s="10">
-        <v>17.2</v>
+        <v>17.22</v>
       </c>
       <c r="J2" s="11">
-        <v>36.1</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="K2" s="12">
-        <v>25</v>
+        <v>25.01</v>
       </c>
       <c r="L2" s="13">
-        <v>38.4</v>
+        <v>38.36</v>
       </c>
       <c r="M2" s="14">
-        <v>23.7</v>
+        <v>23.68</v>
       </c>
       <c r="N2" s="15">
-        <v>40.4</v>
+        <v>40.369999999999997</v>
       </c>
       <c r="O2" s="16">
-        <v>24.5</v>
+        <v>24.53</v>
       </c>
       <c r="P2" s="17">
-        <v>45.5</v>
+        <v>45.46</v>
       </c>
       <c r="Q2" s="18">
-        <v>30.5</v>
+        <v>30.45</v>
       </c>
       <c r="R2" s="19">
-        <v>63.6</v>
+        <v>63.63</v>
       </c>
       <c r="S2" s="20">
-        <v>47.7</v>
+        <v>47.71</v>
       </c>
       <c r="T2" s="21">
-        <v>81.7</v>
+        <v>81.72</v>
       </c>
       <c r="U2" s="22">
-        <v>46.7</v>
+        <v>46.68</v>
       </c>
       <c r="V2" s="23">
         <v>96</v>
       </c>
       <c r="W2" s="24">
-        <v>77.7</v>
+        <v>77.72</v>
       </c>
       <c r="X2" s="25">
-        <v>123.7</v>
+        <v>123.74</v>
       </c>
       <c r="Y2" s="26">
         <v>52.9</v>
       </c>
       <c r="Z2" s="27">
-        <v>98.7</v>
+        <v>98.71</v>
       </c>
       <c r="AA2" s="28">
-        <v>64.3</v>
+        <v>64.290000000000006</v>
       </c>
       <c r="AB2" s="29">
-        <v>96.1</v>
+        <v>96.12</v>
       </c>
       <c r="AC2" s="30">
-        <v>53.4</v>
+        <v>53.38</v>
       </c>
       <c r="AD2" s="31">
-        <v>112.3</v>
+        <v>112.33</v>
       </c>
       <c r="AE2" s="32">
-        <v>86.1</v>
+        <v>86.11</v>
       </c>
       <c r="AF2" s="33">
-        <v>114.9</v>
+        <v>114.86</v>
       </c>
       <c r="AG2" s="34">
         <v>59</v>
       </c>
       <c r="AH2" s="35">
-        <v>123.2</v>
+        <v>123.21</v>
       </c>
       <c r="AI2" s="36">
-        <v>97.8</v>
+        <v>97.81</v>
       </c>
       <c r="AJ2" s="37">
-        <v>116.8</v>
+        <v>116.81</v>
       </c>
       <c r="AK2" s="38">
-        <v>84.1</v>
+        <v>84.07</v>
       </c>
       <c r="AL2" s="39">
-        <v>156.80000000000001</v>
+        <v>156.78</v>
       </c>
       <c r="AM2" s="40">
-        <v>108.9</v>
+        <v>108.94</v>
       </c>
       <c r="AN2" s="41">
-        <v>126.9</v>
+        <v>126.91</v>
       </c>
       <c r="AO2" s="42">
-        <v>78.900000000000006</v>
+        <v>78.86</v>
       </c>
       <c r="AP2" s="43">
-        <v>177</v>
+        <v>176.95</v>
       </c>
       <c r="AQ2" s="44">
-        <v>162.69999999999999</v>
+        <v>162.69</v>
       </c>
       <c r="AR2" s="45">
-        <v>188</v>
+        <v>187.98</v>
       </c>
       <c r="AS2" s="46">
         <v>125.4</v>
@@ -4388,121 +4388,121 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F3" s="260">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G3" s="261">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="H3" s="262">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="I3" s="263">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="J3" s="264">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="K3" s="265">
         <v>1.5</v>
       </c>
       <c r="L3" s="266">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="267">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="N3" s="268">
-        <v>2.2999999999999998</v>
+        <v>2.34</v>
       </c>
       <c r="O3" s="269">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="P3" s="270">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q3" s="271">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="R3" s="272">
-        <v>2.2000000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="S3" s="273">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T3" s="274">
         <v>2.5</v>
       </c>
       <c r="U3" s="275">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="V3" s="276">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="W3" s="277">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="X3" s="278">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="Y3" s="279">
-        <v>3.4</v>
+        <v>3.37</v>
       </c>
       <c r="Z3" s="280">
         <v>5.0999999999999996</v>
       </c>
       <c r="AA3" s="281">
-        <v>4.0999999999999996</v>
+        <v>4.12</v>
       </c>
       <c r="AB3" s="282">
-        <v>4.7</v>
+        <v>4.74</v>
       </c>
       <c r="AC3" s="283">
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AD3" s="284">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="AE3" s="285">
-        <v>4.9000000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AF3" s="286">
-        <v>5.6</v>
+        <v>5.57</v>
       </c>
       <c r="AG3" s="287">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="AH3" s="288">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="AI3" s="289">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
       <c r="AJ3" s="290">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="AK3" s="291">
-        <v>5.8</v>
+        <v>5.82</v>
       </c>
       <c r="AL3" s="292">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="AM3" s="293">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="AN3" s="294">
         <v>7.5</v>
       </c>
       <c r="AO3" s="295">
-        <v>6.4</v>
+        <v>6.38</v>
       </c>
       <c r="AP3" s="296">
-        <v>8.5</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AQ3" s="297">
-        <v>8.1</v>
+        <v>8.14</v>
       </c>
       <c r="AR3" s="298">
-        <v>8.5</v>
+        <v>8.49</v>
       </c>
       <c r="AS3" s="299">
         <v>7.8</v>
@@ -5133,95 +5133,95 @@
       </c>
     </row>
     <row r="4" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E4" s="6">
-        <v>6.2</v>
+        <v>6.18</v>
       </c>
       <c r="F4" s="7">
-        <v>6.7</v>
+        <v>6.71</v>
       </c>
       <c r="G4" s="8">
-        <v>7.2</v>
+        <v>7.22</v>
       </c>
       <c r="H4" s="9">
-        <v>8.4</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="I4" s="10">
-        <v>8.3000000000000007</v>
+        <v>8.34</v>
       </c>
       <c r="J4" s="11">
-        <v>8.6999999999999993</v>
+        <v>8.74</v>
       </c>
       <c r="K4" s="12">
-        <v>8.9</v>
+        <v>8.94</v>
       </c>
       <c r="L4" s="13">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="M4" s="14">
-        <v>9.1999999999999993</v>
+        <v>9.18</v>
       </c>
       <c r="N4" s="15">
-        <v>10.5</v>
+        <v>10.49</v>
       </c>
       <c r="O4" s="16">
-        <v>11.2</v>
+        <v>11.17</v>
       </c>
       <c r="P4" s="17">
-        <v>12</v>
+        <v>11.96</v>
       </c>
       <c r="Q4" s="18">
         <v>14.3</v>
       </c>
       <c r="R4" s="19">
-        <v>15.7</v>
+        <v>15.66</v>
       </c>
       <c r="S4" s="20">
-        <v>17.600000000000001</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="T4" s="21">
-        <v>19.100000000000001</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="U4" s="22">
-        <v>19.899999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="V4" s="23">
-        <v>26.3</v>
+        <v>26.27</v>
       </c>
       <c r="W4" s="24">
         <v>28.4</v>
       </c>
       <c r="X4" s="25">
-        <v>30.8</v>
+        <v>30.77</v>
       </c>
       <c r="Y4" s="26">
-        <v>28.4</v>
+        <v>28.39</v>
       </c>
       <c r="Z4" s="27">
-        <v>36</v>
+        <v>35.979999999999997</v>
       </c>
       <c r="AA4" s="28">
-        <v>37.1</v>
+        <v>37.07</v>
       </c>
       <c r="AB4" s="29">
-        <v>40.799999999999997</v>
+        <v>40.75</v>
       </c>
       <c r="AC4" s="30">
-        <v>38.1</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="AD4" s="31">
-        <v>45.4</v>
+        <v>45.39</v>
       </c>
       <c r="AE4" s="32">
         <v>46.3</v>
@@ -5236,34 +5236,34 @@
         <v>54.3</v>
       </c>
       <c r="AI4" s="36">
-        <v>57.7</v>
+        <v>57.74</v>
       </c>
       <c r="AJ4" s="37">
-        <v>63.4</v>
+        <v>63.38</v>
       </c>
       <c r="AK4" s="38">
-        <v>60.8</v>
+        <v>60.78</v>
       </c>
       <c r="AL4" s="39">
-        <v>72.900000000000006</v>
+        <v>72.89</v>
       </c>
       <c r="AM4" s="40">
-        <v>76.8</v>
+        <v>76.78</v>
       </c>
       <c r="AN4" s="41">
-        <v>79.900000000000006</v>
+        <v>79.92</v>
       </c>
       <c r="AO4" s="42">
-        <v>76.5</v>
+        <v>76.47</v>
       </c>
       <c r="AP4" s="43">
-        <v>87.8</v>
+        <v>87.81</v>
       </c>
       <c r="AQ4" s="44">
-        <v>96.4</v>
+        <v>96.42</v>
       </c>
       <c r="AR4" s="45">
-        <v>117</v>
+        <v>116.96</v>
       </c>
       <c r="AS4" s="46">
         <v>97.3</v>
@@ -5907,124 +5907,124 @@
         <v>256</v>
       </c>
       <c r="E5" s="259">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="F5" s="260">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G5" s="261">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="H5" s="262">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I5" s="263">
         <v>0.4</v>
       </c>
       <c r="J5" s="264">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="K5" s="265">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L5" s="266">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="M5" s="267">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="N5" s="268">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="O5" s="269">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="P5" s="270">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="Q5" s="271">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="R5" s="272">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="S5" s="273">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="T5" s="274">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="U5" s="275">
         <v>1.1000000000000001</v>
       </c>
       <c r="V5" s="276">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="W5" s="277">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X5" s="278">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Y5" s="279">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="Z5" s="280">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AA5" s="281">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="AB5" s="282">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="AC5" s="283">
-        <v>2.5</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AD5" s="284">
         <v>3.1</v>
       </c>
       <c r="AE5" s="285">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="AF5" s="286">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="AG5" s="287">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="AH5" s="288">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="AI5" s="289">
-        <v>3.6</v>
+        <v>3.64</v>
       </c>
       <c r="AJ5" s="290">
-        <v>4.3</v>
+        <v>4.32</v>
       </c>
       <c r="AK5" s="291">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="AL5" s="292">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AM5" s="293">
-        <v>4.9000000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="AN5" s="294">
-        <v>5.2</v>
+        <v>5.24</v>
       </c>
       <c r="AO5" s="295">
-        <v>5.6</v>
+        <v>5.63</v>
       </c>
       <c r="AP5" s="296">
-        <v>6.6</v>
+        <v>6.56</v>
       </c>
       <c r="AQ5" s="297">
-        <v>6.5</v>
+        <v>6.54</v>
       </c>
       <c r="AR5" s="298">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="AS5" s="299">
         <v>7.8</v>
@@ -6655,41 +6655,41 @@
       </c>
     </row>
     <row r="6" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E6" s="6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="F6" s="7">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G6" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H6" s="9">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="I6" s="10">
         <v>1.7</v>
       </c>
       <c r="J6" s="11">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="K6" s="12">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L6" s="13">
-        <v>2.2000000000000002</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="M6" s="14">
         <v>2</v>
@@ -6698,94 +6698,94 @@
         <v>2.8</v>
       </c>
       <c r="O6" s="16">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="P6" s="17">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q6" s="18">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="R6" s="19">
         <v>3.6</v>
       </c>
       <c r="S6" s="20">
-        <v>3.4</v>
+        <v>3.36</v>
       </c>
       <c r="T6" s="21">
         <v>3.6</v>
       </c>
       <c r="U6" s="22">
-        <v>4</v>
+        <v>4.04</v>
       </c>
       <c r="V6" s="23">
-        <v>5.0999999999999996</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="W6" s="24">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="X6" s="25">
-        <v>4.9000000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="Y6" s="26">
-        <v>4.7</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Z6" s="27">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="AA6" s="28">
-        <v>7</v>
+        <v>6.97</v>
       </c>
       <c r="AB6" s="29">
-        <v>7</v>
+        <v>6.99</v>
       </c>
       <c r="AC6" s="30">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="AD6" s="31">
-        <v>10.3</v>
+        <v>10.31</v>
       </c>
       <c r="AE6" s="32">
-        <v>9.3000000000000007</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="AF6" s="33">
-        <v>9.4</v>
+        <v>9.36</v>
       </c>
       <c r="AG6" s="34">
-        <v>7.5</v>
+        <v>7.48</v>
       </c>
       <c r="AH6" s="35">
-        <v>11.3</v>
+        <v>11.29</v>
       </c>
       <c r="AI6" s="36">
-        <v>12.1</v>
+        <v>12.11</v>
       </c>
       <c r="AJ6" s="37">
-        <v>13.9</v>
+        <v>13.86</v>
       </c>
       <c r="AK6" s="38">
-        <v>10.8</v>
+        <v>10.75</v>
       </c>
       <c r="AL6" s="39">
-        <v>18.399999999999999</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="AM6" s="40">
-        <v>18.3</v>
+        <v>18.34</v>
       </c>
       <c r="AN6" s="41">
-        <v>24</v>
+        <v>23.95</v>
       </c>
       <c r="AO6" s="42">
-        <v>14.8</v>
+        <v>14.75</v>
       </c>
       <c r="AP6" s="43">
-        <v>27</v>
+        <v>27.03</v>
       </c>
       <c r="AQ6" s="44">
-        <v>31.6</v>
+        <v>31.61</v>
       </c>
       <c r="AR6" s="45">
-        <v>35.5</v>
+        <v>35.51</v>
       </c>
       <c r="AS6" s="46">
         <v>20.2</v>
@@ -7429,124 +7429,124 @@
         <v>256</v>
       </c>
       <c r="E7" s="259">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="F7" s="260">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="G7" s="261">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="H7" s="262">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="I7" s="263">
-        <v>7.9</v>
+        <v>7.86</v>
       </c>
       <c r="J7" s="264">
         <v>7.9</v>
       </c>
       <c r="K7" s="265">
-        <v>8.1999999999999993</v>
+        <v>8.18</v>
       </c>
       <c r="L7" s="266">
-        <v>7.2</v>
+        <v>7.22</v>
       </c>
       <c r="M7" s="267">
-        <v>7.4</v>
+        <v>7.36</v>
       </c>
       <c r="N7" s="268">
-        <v>10.199999999999999</v>
+        <v>10.19</v>
       </c>
       <c r="O7" s="269">
-        <v>11.5</v>
+        <v>11.49</v>
       </c>
       <c r="P7" s="270">
-        <v>11.4</v>
+        <v>11.41</v>
       </c>
       <c r="Q7" s="271">
-        <v>12.1</v>
+        <v>12.08</v>
       </c>
       <c r="R7" s="272">
         <v>14.5</v>
       </c>
       <c r="S7" s="273">
-        <v>16.7</v>
+        <v>16.73</v>
       </c>
       <c r="T7" s="274">
-        <v>14</v>
+        <v>13.95</v>
       </c>
       <c r="U7" s="275">
-        <v>13.8</v>
+        <v>13.82</v>
       </c>
       <c r="V7" s="276">
-        <v>23.7</v>
+        <v>23.65</v>
       </c>
       <c r="W7" s="277">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="X7" s="278">
-        <v>21.4</v>
+        <v>21.37</v>
       </c>
       <c r="Y7" s="279">
-        <v>20.8</v>
+        <v>20.81</v>
       </c>
       <c r="Z7" s="280">
-        <v>26.3</v>
+        <v>26.32</v>
       </c>
       <c r="AA7" s="281">
-        <v>33.4</v>
+        <v>33.44</v>
       </c>
       <c r="AB7" s="282">
-        <v>31.4</v>
+        <v>31.37</v>
       </c>
       <c r="AC7" s="283">
-        <v>28.7</v>
+        <v>28.71</v>
       </c>
       <c r="AD7" s="284">
-        <v>43.1</v>
+        <v>43.11</v>
       </c>
       <c r="AE7" s="285">
-        <v>44.4</v>
+        <v>44.36</v>
       </c>
       <c r="AF7" s="286">
-        <v>36.700000000000003</v>
+        <v>36.74</v>
       </c>
       <c r="AG7" s="287">
-        <v>36.200000000000003</v>
+        <v>36.24</v>
       </c>
       <c r="AH7" s="288">
-        <v>54.6</v>
+        <v>54.61</v>
       </c>
       <c r="AI7" s="289">
-        <v>54.2</v>
+        <v>54.22</v>
       </c>
       <c r="AJ7" s="290">
-        <v>55.5</v>
+        <v>55.49</v>
       </c>
       <c r="AK7" s="291">
-        <v>41</v>
+        <v>41.04</v>
       </c>
       <c r="AL7" s="292">
-        <v>63.9</v>
+        <v>63.92</v>
       </c>
       <c r="AM7" s="293">
-        <v>74.2</v>
+        <v>74.180000000000007</v>
       </c>
       <c r="AN7" s="294">
-        <v>62.3</v>
+        <v>62.25</v>
       </c>
       <c r="AO7" s="295">
         <v>56.6</v>
       </c>
       <c r="AP7" s="296">
-        <v>84.7</v>
+        <v>84.69</v>
       </c>
       <c r="AQ7" s="297">
-        <v>99.5</v>
+        <v>99.46</v>
       </c>
       <c r="AR7" s="298">
-        <v>86.9</v>
+        <v>86.94</v>
       </c>
       <c r="AS7" s="299">
         <v>70.8</v>
@@ -8177,137 +8177,137 @@
       </c>
     </row>
     <row r="8" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E8" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="F8" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.16</v>
       </c>
       <c r="G8" s="8">
-        <v>2.2000000000000002</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H8" s="9">
-        <v>2.4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I8" s="10">
-        <v>2.5</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="J8" s="11">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K8" s="12">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L8" s="13">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="M8" s="14">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="N8" s="15">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="O8" s="16">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="P8" s="17">
-        <v>3.8</v>
+        <v>3.78</v>
       </c>
       <c r="Q8" s="18">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="R8" s="19">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="S8" s="20">
-        <v>4</v>
+        <v>4.01</v>
       </c>
       <c r="T8" s="21">
-        <v>4.4000000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="U8" s="22">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="V8" s="23">
         <v>4.5</v>
       </c>
       <c r="W8" s="24">
-        <v>4.8</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="X8" s="25">
         <v>5.3</v>
       </c>
       <c r="Y8" s="26">
-        <v>5.5</v>
+        <v>5.52</v>
       </c>
       <c r="Z8" s="27">
-        <v>6.1</v>
+        <v>6.08</v>
       </c>
       <c r="AA8" s="28">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="AB8" s="29">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="AC8" s="30">
-        <v>8.1</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AD8" s="31">
-        <v>9.9</v>
+        <v>9.94</v>
       </c>
       <c r="AE8" s="32">
-        <v>10.8</v>
+        <v>10.81</v>
       </c>
       <c r="AF8" s="33">
-        <v>11.9</v>
+        <v>11.93</v>
       </c>
       <c r="AG8" s="34">
-        <v>12.7</v>
+        <v>12.71</v>
       </c>
       <c r="AH8" s="35">
-        <v>14.6</v>
+        <v>14.57</v>
       </c>
       <c r="AI8" s="36">
-        <v>15.9</v>
+        <v>15.86</v>
       </c>
       <c r="AJ8" s="37">
-        <v>17.399999999999999</v>
+        <v>17.39</v>
       </c>
       <c r="AK8" s="38">
         <v>18.2</v>
       </c>
       <c r="AL8" s="39">
-        <v>21.3</v>
+        <v>21.28</v>
       </c>
       <c r="AM8" s="40">
-        <v>22.8</v>
+        <v>22.79</v>
       </c>
       <c r="AN8" s="41">
-        <v>24.8</v>
+        <v>24.76</v>
       </c>
       <c r="AO8" s="42">
-        <v>25.2</v>
+        <v>25.16</v>
       </c>
       <c r="AP8" s="43">
-        <v>28.6</v>
+        <v>28.57</v>
       </c>
       <c r="AQ8" s="44">
-        <v>29.7</v>
+        <v>29.65</v>
       </c>
       <c r="AR8" s="45">
-        <v>32.299999999999997</v>
+        <v>32.33</v>
       </c>
       <c r="AS8" s="46">
         <v>31.9</v>
@@ -8951,64 +8951,64 @@
         <v>256</v>
       </c>
       <c r="E9" s="259">
-        <v>1.1000000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="F9" s="260">
         <v>0.8</v>
       </c>
       <c r="G9" s="261">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="H9" s="262">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I9" s="263">
-        <v>1.1000000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="J9" s="264">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="K9" s="265">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="L9" s="266">
         <v>0.9</v>
       </c>
       <c r="M9" s="267">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="N9" s="268">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="O9" s="269">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="P9" s="270">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Q9" s="271">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R9" s="272">
         <v>1.5</v>
       </c>
       <c r="S9" s="273">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="T9" s="274">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U9" s="275">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="V9" s="276">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W9" s="277">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="X9" s="278">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="Y9" s="279">
         <v>2.7</v>
@@ -9017,58 +9017,58 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AA9" s="281">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AB9" s="282">
-        <v>2.2999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="AC9" s="283">
-        <v>3.2</v>
+        <v>3.24</v>
       </c>
       <c r="AD9" s="284">
-        <v>2.9</v>
+        <v>2.93</v>
       </c>
       <c r="AE9" s="285">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="AF9" s="286">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="AG9" s="287">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="AH9" s="288">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="AI9" s="289">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="AJ9" s="290">
-        <v>4.5999999999999996</v>
+        <v>4.57</v>
       </c>
       <c r="AK9" s="291">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="AL9" s="292">
         <v>6.4</v>
       </c>
       <c r="AM9" s="293">
-        <v>7.1</v>
+        <v>7.08</v>
       </c>
       <c r="AN9" s="294">
-        <v>7.1</v>
+        <v>7.13</v>
       </c>
       <c r="AO9" s="295">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="AP9" s="296">
         <v>8.6</v>
       </c>
       <c r="AQ9" s="297">
-        <v>9.3000000000000007</v>
+        <v>9.26</v>
       </c>
       <c r="AR9" s="298">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
       <c r="AS9" s="299">
         <v>13.9</v>
@@ -9699,137 +9699,137 @@
       </c>
     </row>
     <row r="10" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E10" s="6">
-        <v>4.5999999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="F10" s="7">
         <v>4.5999999999999996</v>
       </c>
       <c r="G10" s="8">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="H10" s="9">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="I10" s="10">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="J10" s="11">
         <v>4.5999999999999996</v>
       </c>
       <c r="K10" s="12">
-        <v>4.4000000000000004</v>
+        <v>4.41</v>
       </c>
       <c r="L10" s="13">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="M10" s="14">
-        <v>5.0999999999999996</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="N10" s="15">
-        <v>4.9000000000000004</v>
+        <v>4.92</v>
       </c>
       <c r="O10" s="16">
-        <v>4.9000000000000004</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="P10" s="17">
-        <v>5.9</v>
+        <v>5.94</v>
       </c>
       <c r="Q10" s="18">
-        <v>5.9</v>
+        <v>5.89</v>
       </c>
       <c r="R10" s="19">
-        <v>5.9</v>
+        <v>5.92</v>
       </c>
       <c r="S10" s="20">
-        <v>6.1</v>
+        <v>6.07</v>
       </c>
       <c r="T10" s="21">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="U10" s="22">
-        <v>7.4</v>
+        <v>7.37</v>
       </c>
       <c r="V10" s="23">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="W10" s="24">
-        <v>7</v>
+        <v>7.02</v>
       </c>
       <c r="X10" s="25">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="Y10" s="26">
-        <v>8.4</v>
+        <v>8.41</v>
       </c>
       <c r="Z10" s="27">
-        <v>8.3000000000000007</v>
+        <v>8.32</v>
       </c>
       <c r="AA10" s="28">
-        <v>8.1999999999999993</v>
+        <v>8.16</v>
       </c>
       <c r="AB10" s="29">
-        <v>9.1</v>
+        <v>9.08</v>
       </c>
       <c r="AC10" s="30">
         <v>10.199999999999999</v>
       </c>
       <c r="AD10" s="31">
-        <v>10.1</v>
+        <v>10.08</v>
       </c>
       <c r="AE10" s="32">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="AF10" s="33">
-        <v>11.2</v>
+        <v>11.23</v>
       </c>
       <c r="AG10" s="34">
-        <v>14.3</v>
+        <v>14.28</v>
       </c>
       <c r="AH10" s="35">
-        <v>14.1</v>
+        <v>14.14</v>
       </c>
       <c r="AI10" s="36">
         <v>14.3</v>
       </c>
       <c r="AJ10" s="37">
-        <v>15.4</v>
+        <v>15.44</v>
       </c>
       <c r="AK10" s="38">
-        <v>17.899999999999999</v>
+        <v>17.91</v>
       </c>
       <c r="AL10" s="39">
-        <v>17.2</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="AM10" s="40">
-        <v>16.600000000000001</v>
+        <v>16.62</v>
       </c>
       <c r="AN10" s="41">
-        <v>18.3</v>
+        <v>18.25</v>
       </c>
       <c r="AO10" s="42">
-        <v>20.6</v>
+        <v>20.61</v>
       </c>
       <c r="AP10" s="43">
-        <v>20.7</v>
+        <v>20.69</v>
       </c>
       <c r="AQ10" s="44">
-        <v>19.8</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="AR10" s="45">
-        <v>21.4</v>
+        <v>21.39</v>
       </c>
       <c r="AS10" s="46">
         <v>24.3</v>
@@ -10473,52 +10473,52 @@
         <v>256</v>
       </c>
       <c r="E11" s="259">
-        <v>2.2999999999999998</v>
+        <v>2.27</v>
       </c>
       <c r="F11" s="260">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G11" s="261">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H11" s="262">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I11" s="263">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J11" s="264">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K11" s="265">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="L11" s="266">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M11" s="267">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="N11" s="268">
-        <v>3.3</v>
+        <v>3.27</v>
       </c>
       <c r="O11" s="269">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="P11" s="270">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="Q11" s="271">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="R11" s="272">
-        <v>3.5</v>
+        <v>3.53</v>
       </c>
       <c r="S11" s="273">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="T11" s="274">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="U11" s="275">
         <v>3.5</v>
@@ -10527,70 +10527,70 @@
         <v>3.9</v>
       </c>
       <c r="W11" s="277">
-        <v>4.3</v>
+        <v>4.29</v>
       </c>
       <c r="X11" s="278">
-        <v>4.5999999999999996</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Y11" s="279">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="Z11" s="280">
-        <v>4.2</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="AA11" s="281">
-        <v>4.7</v>
+        <v>4.66</v>
       </c>
       <c r="AB11" s="282">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="AC11" s="283">
-        <v>4.4000000000000004</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="AD11" s="284">
-        <v>6.8</v>
+        <v>6.75</v>
       </c>
       <c r="AE11" s="285">
-        <v>7.5</v>
+        <v>7.46</v>
       </c>
       <c r="AF11" s="286">
-        <v>8.1</v>
+        <v>8.07</v>
       </c>
       <c r="AG11" s="287">
         <v>6.6</v>
       </c>
       <c r="AH11" s="288">
-        <v>9</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="AI11" s="289">
-        <v>9.9</v>
+        <v>9.92</v>
       </c>
       <c r="AJ11" s="290">
-        <v>10.7</v>
+        <v>10.71</v>
       </c>
       <c r="AK11" s="291">
-        <v>10.6</v>
+        <v>10.64</v>
       </c>
       <c r="AL11" s="292">
-        <v>12.5</v>
+        <v>12.48</v>
       </c>
       <c r="AM11" s="293">
         <v>13.8</v>
       </c>
       <c r="AN11" s="294">
-        <v>14.9</v>
+        <v>14.87</v>
       </c>
       <c r="AO11" s="295">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="AP11" s="296">
-        <v>14.7</v>
+        <v>14.65</v>
       </c>
       <c r="AQ11" s="297">
-        <v>17.3</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="AR11" s="298">
-        <v>21.9</v>
+        <v>21.88</v>
       </c>
       <c r="AS11" s="299">
         <v>20.100000000000001</v>
@@ -11221,137 +11221,137 @@
       </c>
     </row>
     <row r="12" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E12" s="6">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F12" s="7">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="G12" s="8">
         <v>0.4</v>
       </c>
       <c r="H12" s="9">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
       </c>
       <c r="J12" s="11">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="K12" s="12">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L12" s="13">
         <v>0.6</v>
       </c>
       <c r="M12" s="14">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="N12" s="15">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="O12" s="16">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="P12" s="17">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="Q12" s="18">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R12" s="19">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="S12" s="20">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="T12" s="21">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U12" s="22">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V12" s="23">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="W12" s="24">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="X12" s="25">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Y12" s="26">
-        <v>2.2999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="Z12" s="27">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AA12" s="28">
         <v>1.3</v>
       </c>
       <c r="AB12" s="29">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AC12" s="30">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AD12" s="31">
-        <v>2</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="AE12" s="32">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AF12" s="33">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="AG12" s="34">
         <v>2.9</v>
       </c>
       <c r="AH12" s="35">
-        <v>2.2000000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="AI12" s="36">
-        <v>2.2999999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AJ12" s="37">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="AK12" s="38">
         <v>3.7</v>
       </c>
       <c r="AL12" s="39">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="AM12" s="40">
-        <v>2.5</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AN12" s="41">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="AO12" s="42">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="AP12" s="43">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AQ12" s="44">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="AR12" s="45">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="AS12" s="46">
         <v>3.9</v>
@@ -11995,124 +11995,124 @@
         <v>256</v>
       </c>
       <c r="E13" s="259">
-        <v>1.1000000000000001</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="F13" s="260">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G13" s="261">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="H13" s="262">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I13" s="263">
         <v>1.6</v>
       </c>
       <c r="J13" s="264">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="K13" s="265">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="L13" s="266">
         <v>1.4</v>
       </c>
       <c r="M13" s="267">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="N13" s="268">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O13" s="269">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P13" s="270">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q13" s="271">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="R13" s="272">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S13" s="273">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T13" s="274">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="U13" s="275">
-        <v>2.2000000000000002</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="V13" s="276">
-        <v>2.4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="W13" s="277">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X13" s="278">
-        <v>2.4</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Y13" s="279">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="Z13" s="280">
-        <v>3.2</v>
+        <v>3.21</v>
       </c>
       <c r="AA13" s="281">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="AB13" s="282">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AC13" s="283">
-        <v>3.8</v>
+        <v>3.82</v>
       </c>
       <c r="AD13" s="284">
-        <v>4.2</v>
+        <v>4.21</v>
       </c>
       <c r="AE13" s="285">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AF13" s="286">
-        <v>4.4000000000000004</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="AG13" s="287">
-        <v>5.8</v>
+        <v>5.83</v>
       </c>
       <c r="AH13" s="288">
-        <v>6.2</v>
+        <v>6.23</v>
       </c>
       <c r="AI13" s="289">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
       <c r="AJ13" s="290">
-        <v>6.4</v>
+        <v>6.44</v>
       </c>
       <c r="AK13" s="291">
-        <v>8.1999999999999993</v>
+        <v>8.16</v>
       </c>
       <c r="AL13" s="292">
-        <v>8.6</v>
+        <v>8.57</v>
       </c>
       <c r="AM13" s="293">
         <v>8.6</v>
       </c>
       <c r="AN13" s="294">
-        <v>9.5</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="AO13" s="295">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="AP13" s="296">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="AQ13" s="297">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="AR13" s="298">
-        <v>13.1</v>
+        <v>13.09</v>
       </c>
       <c r="AS13" s="299">
         <v>15.8</v>
@@ -12743,44 +12743,44 @@
       </c>
     </row>
     <row r="14" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E14" s="6">
-        <v>45</v>
+        <v>45.03</v>
       </c>
       <c r="F14" s="7">
-        <v>63.3</v>
+        <v>63.34</v>
       </c>
       <c r="G14" s="8">
-        <v>56.8</v>
+        <v>56.77</v>
       </c>
       <c r="H14" s="9">
-        <v>67.099999999999994</v>
+        <v>67.11</v>
       </c>
       <c r="I14" s="10">
-        <v>57.8</v>
+        <v>57.77</v>
       </c>
       <c r="J14" s="11">
-        <v>78.7</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="K14" s="12">
-        <v>66.5</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="L14" s="13">
-        <v>80.7</v>
+        <v>80.73</v>
       </c>
       <c r="M14" s="14">
-        <v>67.3</v>
+        <v>67.25</v>
       </c>
       <c r="N14" s="15">
         <v>92.6</v>
@@ -12792,88 +12792,88 @@
         <v>101.4</v>
       </c>
       <c r="Q14" s="18">
-        <v>90.8</v>
+        <v>90.75</v>
       </c>
       <c r="R14" s="19">
-        <v>128.1</v>
+        <v>128.07</v>
       </c>
       <c r="S14" s="20">
-        <v>117.6</v>
+        <v>117.63</v>
       </c>
       <c r="T14" s="21">
-        <v>153.19999999999999</v>
+        <v>153.18</v>
       </c>
       <c r="U14" s="22">
-        <v>122.1</v>
+        <v>122.09</v>
       </c>
       <c r="V14" s="23">
-        <v>190.4</v>
+        <v>190.35</v>
       </c>
       <c r="W14" s="24">
-        <v>172.7</v>
+        <v>172.73</v>
       </c>
       <c r="X14" s="25">
-        <v>222.8</v>
+        <v>222.84</v>
       </c>
       <c r="Y14" s="26">
-        <v>153.6</v>
+        <v>153.59</v>
       </c>
       <c r="Z14" s="27">
-        <v>216.6</v>
+        <v>216.64</v>
       </c>
       <c r="AA14" s="28">
-        <v>190.1</v>
+        <v>190.06</v>
       </c>
       <c r="AB14" s="29">
-        <v>226.3</v>
+        <v>226.25</v>
       </c>
       <c r="AC14" s="30">
-        <v>185.4</v>
+        <v>185.44</v>
       </c>
       <c r="AD14" s="31">
-        <v>277.3</v>
+        <v>277.25</v>
       </c>
       <c r="AE14" s="32">
-        <v>253</v>
+        <v>253.01</v>
       </c>
       <c r="AF14" s="33">
-        <v>281.7</v>
+        <v>281.64999999999998</v>
       </c>
       <c r="AG14" s="34">
-        <v>227.2</v>
+        <v>227.21</v>
       </c>
       <c r="AH14" s="35">
         <v>330.6</v>
       </c>
       <c r="AI14" s="36">
-        <v>313.5</v>
+        <v>313.54000000000002</v>
       </c>
       <c r="AJ14" s="37">
-        <v>346.9</v>
+        <v>346.86</v>
       </c>
       <c r="AK14" s="38">
-        <v>303.10000000000002</v>
+        <v>303.08999999999997</v>
       </c>
       <c r="AL14" s="39">
-        <v>426.8</v>
+        <v>426.78</v>
       </c>
       <c r="AM14" s="40">
-        <v>396.9</v>
+        <v>396.94</v>
       </c>
       <c r="AN14" s="41">
-        <v>421.8</v>
+        <v>421.76</v>
       </c>
       <c r="AO14" s="42">
-        <v>358.9</v>
+        <v>358.92</v>
       </c>
       <c r="AP14" s="43">
-        <v>521.5</v>
+        <v>521.47</v>
       </c>
       <c r="AQ14" s="44">
-        <v>543.1</v>
+        <v>543.09</v>
       </c>
       <c r="AR14" s="45">
-        <v>596.79999999999995</v>
+        <v>596.82000000000005</v>
       </c>
       <c r="AS14" s="46">
         <v>487.3</v>
@@ -13517,124 +13517,124 @@
         <v>256</v>
       </c>
       <c r="E15" s="259">
-        <v>3.9</v>
+        <v>3.88</v>
       </c>
       <c r="F15" s="260">
-        <v>4.7</v>
+        <v>4.71</v>
       </c>
       <c r="G15" s="261">
-        <v>4.2</v>
+        <v>4.24</v>
       </c>
       <c r="H15" s="262">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="I15" s="263">
-        <v>4</v>
+        <v>4.03</v>
       </c>
       <c r="J15" s="264">
-        <v>4.5999999999999996</v>
+        <v>4.55</v>
       </c>
       <c r="K15" s="265">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="L15" s="266">
-        <v>5.3</v>
+        <v>5.31</v>
       </c>
       <c r="M15" s="267">
-        <v>5.4</v>
+        <v>5.37</v>
       </c>
       <c r="N15" s="268">
-        <v>6.9</v>
+        <v>6.85</v>
       </c>
       <c r="O15" s="269">
-        <v>6.1</v>
+        <v>6.13</v>
       </c>
       <c r="P15" s="270">
-        <v>7.8</v>
+        <v>7.77</v>
       </c>
       <c r="Q15" s="271">
-        <v>6.8</v>
+        <v>6.79</v>
       </c>
       <c r="R15" s="272">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
       <c r="S15" s="273">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="T15" s="274">
-        <v>8.6</v>
+        <v>8.61</v>
       </c>
       <c r="U15" s="275">
-        <v>6.2</v>
+        <v>6.21</v>
       </c>
       <c r="V15" s="276">
-        <v>7.9</v>
+        <v>7.89</v>
       </c>
       <c r="W15" s="277">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
       <c r="X15" s="278">
         <v>10.1</v>
       </c>
       <c r="Y15" s="279">
-        <v>8.6</v>
+        <v>8.58</v>
       </c>
       <c r="Z15" s="280">
-        <v>11.3</v>
+        <v>11.27</v>
       </c>
       <c r="AA15" s="281">
-        <v>11</v>
+        <v>11.01</v>
       </c>
       <c r="AB15" s="282">
-        <v>14</v>
+        <v>13.98</v>
       </c>
       <c r="AC15" s="283">
-        <v>12.9</v>
+        <v>12.87</v>
       </c>
       <c r="AD15" s="284">
-        <v>17.8</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="AE15" s="285">
-        <v>17.7</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="AF15" s="286">
-        <v>20.399999999999999</v>
+        <v>20.36</v>
       </c>
       <c r="AG15" s="287">
-        <v>17.600000000000001</v>
+        <v>17.61</v>
       </c>
       <c r="AH15" s="288">
-        <v>23.4</v>
+        <v>23.35</v>
       </c>
       <c r="AI15" s="289">
-        <v>24.6</v>
+        <v>24.62</v>
       </c>
       <c r="AJ15" s="290">
-        <v>29.8</v>
+        <v>29.84</v>
       </c>
       <c r="AK15" s="291">
-        <v>28.4</v>
+        <v>28.36</v>
       </c>
       <c r="AL15" s="292">
-        <v>37.299999999999997</v>
+        <v>37.26</v>
       </c>
       <c r="AM15" s="293">
-        <v>37.700000000000003</v>
+        <v>37.74</v>
       </c>
       <c r="AN15" s="294">
-        <v>41</v>
+        <v>40.97</v>
       </c>
       <c r="AO15" s="295">
-        <v>37.200000000000003</v>
+        <v>37.17</v>
       </c>
       <c r="AP15" s="296">
-        <v>47</v>
+        <v>46.98</v>
       </c>
       <c r="AQ15" s="297">
-        <v>51</v>
+        <v>50.97</v>
       </c>
       <c r="AR15" s="298">
-        <v>57.2</v>
+        <v>57.23</v>
       </c>
       <c r="AS15" s="299">
         <v>49.6</v>
@@ -14265,62 +14265,62 @@
       </c>
     </row>
     <row r="16" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E16" s="6">
-        <v>48.9</v>
+        <v>48.91</v>
       </c>
       <c r="F16" s="7">
-        <v>68.099999999999994</v>
+        <v>68.06</v>
       </c>
       <c r="G16" s="8">
-        <v>61</v>
+        <v>61.01</v>
       </c>
       <c r="H16" s="9">
-        <v>71.900000000000006</v>
+        <v>71.89</v>
       </c>
       <c r="I16" s="10">
-        <v>61.8</v>
+        <v>61.81</v>
       </c>
       <c r="J16" s="11">
-        <v>83.3</v>
+        <v>83.27</v>
       </c>
       <c r="K16" s="12">
-        <v>70.599999999999994</v>
+        <v>70.59</v>
       </c>
       <c r="L16" s="13">
-        <v>86</v>
+        <v>86.04</v>
       </c>
       <c r="M16" s="14">
-        <v>72.599999999999994</v>
+        <v>72.63</v>
       </c>
       <c r="N16" s="15">
-        <v>99.5</v>
+        <v>99.45</v>
       </c>
       <c r="O16" s="16">
-        <v>84.6</v>
+        <v>84.63</v>
       </c>
       <c r="P16" s="17">
-        <v>109.2</v>
+        <v>109.17</v>
       </c>
       <c r="Q16" s="18">
-        <v>97.5</v>
+        <v>97.54</v>
       </c>
       <c r="R16" s="19">
-        <v>135.19999999999999</v>
+        <v>135.16</v>
       </c>
       <c r="S16" s="20">
-        <v>124</v>
+        <v>124.04</v>
       </c>
       <c r="T16" s="21">
         <v>161.80000000000001</v>
@@ -14329,31 +14329,31 @@
         <v>128.30000000000001</v>
       </c>
       <c r="V16" s="23">
-        <v>198.2</v>
+        <v>198.24</v>
       </c>
       <c r="W16" s="24">
         <v>180.2</v>
       </c>
       <c r="X16" s="25">
-        <v>232.9</v>
+        <v>232.94</v>
       </c>
       <c r="Y16" s="26">
-        <v>162.19999999999999</v>
+        <v>162.18</v>
       </c>
       <c r="Z16" s="27">
-        <v>227.9</v>
+        <v>227.91</v>
       </c>
       <c r="AA16" s="28">
-        <v>201.1</v>
+        <v>201.07</v>
       </c>
       <c r="AB16" s="29">
-        <v>240.2</v>
+        <v>240.23</v>
       </c>
       <c r="AC16" s="30">
-        <v>198.3</v>
+        <v>198.31</v>
       </c>
       <c r="AD16" s="31">
-        <v>295.10000000000002</v>
+        <v>295.06</v>
       </c>
       <c r="AE16" s="32">
         <v>270.7</v>
@@ -14362,40 +14362,40 @@
         <v>302</v>
       </c>
       <c r="AG16" s="34">
-        <v>244.8</v>
+        <v>244.82</v>
       </c>
       <c r="AH16" s="35">
-        <v>353.9</v>
+        <v>353.94</v>
       </c>
       <c r="AI16" s="36">
-        <v>338.2</v>
+        <v>338.16</v>
       </c>
       <c r="AJ16" s="37">
         <v>376.7</v>
       </c>
       <c r="AK16" s="38">
-        <v>331.4</v>
+        <v>331.44</v>
       </c>
       <c r="AL16" s="39">
-        <v>464</v>
+        <v>464.04</v>
       </c>
       <c r="AM16" s="40">
-        <v>434.7</v>
+        <v>434.68</v>
       </c>
       <c r="AN16" s="41">
-        <v>462.7</v>
+        <v>462.73</v>
       </c>
       <c r="AO16" s="42">
-        <v>396.1</v>
+        <v>396.09</v>
       </c>
       <c r="AP16" s="43">
-        <v>568.5</v>
+        <v>568.46</v>
       </c>
       <c r="AQ16" s="44">
-        <v>594.1</v>
+        <v>594.07000000000005</v>
       </c>
       <c r="AR16" s="45">
-        <v>654</v>
+        <v>654.04</v>
       </c>
       <c r="AS16" s="46">
         <v>536.9</v>
@@ -15039,124 +15039,124 @@
         <v>256</v>
       </c>
       <c r="E17" s="259">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="F17" s="260">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G17" s="261">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="H17" s="262">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="I17" s="263">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J17" s="264">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K17" s="265">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L17" s="266">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M17" s="267">
-        <v>1.1000000000000001</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="N17" s="268">
         <v>0.8</v>
       </c>
       <c r="O17" s="269">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="P17" s="270">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Q17" s="271">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R17" s="272">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="S17" s="273">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T17" s="274">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="U17" s="275">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="V17" s="276">
-        <v>1.2</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="W17" s="277">
         <v>2.6</v>
       </c>
       <c r="X17" s="278">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="Y17" s="279">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Z17" s="280">
         <v>2.8</v>
       </c>
       <c r="AA17" s="281">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="AB17" s="282">
-        <v>3.1</v>
+        <v>3.06</v>
       </c>
       <c r="AC17" s="283">
-        <v>3.9</v>
+        <v>3.93</v>
       </c>
       <c r="AD17" s="284">
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="AE17" s="285">
-        <v>6.4</v>
+        <v>6.37</v>
       </c>
       <c r="AF17" s="286">
-        <v>8.3000000000000007</v>
+        <v>8.32</v>
       </c>
       <c r="AG17" s="287">
-        <v>8</v>
+        <v>7.98</v>
       </c>
       <c r="AH17" s="288">
         <v>9.5</v>
       </c>
       <c r="AI17" s="289">
-        <v>11.5</v>
+        <v>11.53</v>
       </c>
       <c r="AJ17" s="290">
-        <v>11.2</v>
+        <v>11.22</v>
       </c>
       <c r="AK17" s="291">
-        <v>10</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="AL17" s="292">
-        <v>12.4</v>
+        <v>12.35</v>
       </c>
       <c r="AM17" s="293">
-        <v>12.2</v>
+        <v>12.24</v>
       </c>
       <c r="AN17" s="294">
-        <v>12.2</v>
+        <v>12.15</v>
       </c>
       <c r="AO17" s="295">
-        <v>12.5</v>
+        <v>12.47</v>
       </c>
       <c r="AP17" s="296">
-        <v>11.3</v>
+        <v>11.32</v>
       </c>
       <c r="AQ17" s="297">
-        <v>13.2</v>
+        <v>13.18</v>
       </c>
       <c r="AR17" s="298">
-        <v>20.2</v>
+        <v>20.21</v>
       </c>
       <c r="AS17" s="299">
         <v>10.5</v>
@@ -15787,68 +15787,68 @@
       </c>
     </row>
     <row r="18" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E18" s="6">
-        <v>49.2</v>
+        <v>49.15</v>
       </c>
       <c r="F18" s="7">
         <v>68.599999999999994</v>
       </c>
       <c r="G18" s="8">
-        <v>61.9</v>
+        <v>61.85</v>
       </c>
       <c r="H18" s="9">
-        <v>72.5</v>
+        <v>72.53</v>
       </c>
       <c r="I18" s="10">
-        <v>62.3</v>
+        <v>62.29</v>
       </c>
       <c r="J18" s="11">
-        <v>84.1</v>
+        <v>84.05</v>
       </c>
       <c r="K18" s="12">
-        <v>71.7</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="L18" s="13">
-        <v>87.4</v>
+        <v>87.36</v>
       </c>
       <c r="M18" s="14">
-        <v>73.7</v>
+        <v>73.739999999999995</v>
       </c>
       <c r="N18" s="15">
-        <v>100.3</v>
+        <v>100.25</v>
       </c>
       <c r="O18" s="16">
-        <v>85.7</v>
+        <v>85.66</v>
       </c>
       <c r="P18" s="17">
-        <v>110.4</v>
+        <v>110.38</v>
       </c>
       <c r="Q18" s="18">
-        <v>98.9</v>
+        <v>98.93</v>
       </c>
       <c r="R18" s="19">
-        <v>136</v>
+        <v>135.97</v>
       </c>
       <c r="S18" s="20">
-        <v>125.6</v>
+        <v>125.56</v>
       </c>
       <c r="T18" s="21">
-        <v>162.80000000000001</v>
+        <v>162.75</v>
       </c>
       <c r="U18" s="22">
-        <v>129.19999999999999</v>
+        <v>129.16999999999999</v>
       </c>
       <c r="V18" s="23">
         <v>199.4</v>
@@ -15857,67 +15857,67 @@
         <v>182.8</v>
       </c>
       <c r="X18" s="25">
-        <v>236.2</v>
+        <v>236.23</v>
       </c>
       <c r="Y18" s="26">
-        <v>163.5</v>
+        <v>163.51</v>
       </c>
       <c r="Z18" s="27">
         <v>230.7</v>
       </c>
       <c r="AA18" s="28">
-        <v>205.6</v>
+        <v>205.59</v>
       </c>
       <c r="AB18" s="29">
-        <v>243.3</v>
+        <v>243.29</v>
       </c>
       <c r="AC18" s="30">
-        <v>202.2</v>
+        <v>202.23</v>
       </c>
       <c r="AD18" s="31">
         <v>299.39999999999998</v>
       </c>
       <c r="AE18" s="32">
-        <v>277.10000000000002</v>
+        <v>277.07</v>
       </c>
       <c r="AF18" s="33">
-        <v>310.3</v>
+        <v>310.32</v>
       </c>
       <c r="AG18" s="34">
         <v>252.8</v>
       </c>
       <c r="AH18" s="35">
-        <v>363.4</v>
+        <v>363.44</v>
       </c>
       <c r="AI18" s="36">
-        <v>349.7</v>
+        <v>349.68</v>
       </c>
       <c r="AJ18" s="37">
-        <v>387.9</v>
+        <v>387.92</v>
       </c>
       <c r="AK18" s="38">
-        <v>341.5</v>
+        <v>341.47</v>
       </c>
       <c r="AL18" s="39">
-        <v>476.4</v>
+        <v>476.39</v>
       </c>
       <c r="AM18" s="40">
-        <v>446.9</v>
+        <v>446.91</v>
       </c>
       <c r="AN18" s="41">
-        <v>474.9</v>
+        <v>474.89</v>
       </c>
       <c r="AO18" s="42">
-        <v>408.6</v>
+        <v>408.56</v>
       </c>
       <c r="AP18" s="43">
-        <v>579.79999999999995</v>
+        <v>579.77</v>
       </c>
       <c r="AQ18" s="44">
-        <v>607.20000000000005</v>
+        <v>607.24</v>
       </c>
       <c r="AR18" s="45">
-        <v>674.3</v>
+        <v>674.25</v>
       </c>
       <c r="AS18" s="46">
         <v>547.4</v>
@@ -16564,31 +16564,31 @@
         <v>61.5</v>
       </c>
       <c r="F19" s="260">
-        <v>58.3</v>
+        <v>58.31</v>
       </c>
       <c r="G19" s="261">
-        <v>56.5</v>
+        <v>56.51</v>
       </c>
       <c r="H19" s="262">
-        <v>72</v>
+        <v>71.97</v>
       </c>
       <c r="I19" s="263">
-        <v>78.2</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="J19" s="264">
-        <v>67.599999999999994</v>
+        <v>67.58</v>
       </c>
       <c r="K19" s="265">
-        <v>64.8</v>
+        <v>64.78</v>
       </c>
       <c r="L19" s="266">
-        <v>82.5</v>
+        <v>82.53</v>
       </c>
       <c r="M19" s="267">
-        <v>86.1</v>
+        <v>86.08</v>
       </c>
       <c r="N19" s="268">
-        <v>81.599999999999994</v>
+        <v>81.55</v>
       </c>
       <c r="O19" s="269">
         <v>81.7</v>
@@ -16597,16 +16597,16 @@
         <v>104.4</v>
       </c>
       <c r="Q19" s="271">
-        <v>100.8</v>
+        <v>100.78</v>
       </c>
       <c r="R19" s="272">
-        <v>100.2</v>
+        <v>100.24</v>
       </c>
       <c r="S19" s="273">
-        <v>120.9</v>
+        <v>120.92</v>
       </c>
       <c r="T19" s="274">
-        <v>150.6</v>
+        <v>150.56</v>
       </c>
       <c r="U19" s="275">
         <v>164</v>
@@ -16615,70 +16615,70 @@
         <v>162.1</v>
       </c>
       <c r="W19" s="277">
-        <v>153.30000000000001</v>
+        <v>153.34</v>
       </c>
       <c r="X19" s="278">
-        <v>193.5</v>
+        <v>193.53</v>
       </c>
       <c r="Y19" s="279">
-        <v>185.7</v>
+        <v>185.67</v>
       </c>
       <c r="Z19" s="280">
-        <v>176.6</v>
+        <v>176.59</v>
       </c>
       <c r="AA19" s="281">
-        <v>184</v>
+        <v>184.01</v>
       </c>
       <c r="AB19" s="282">
-        <v>221.9</v>
+        <v>221.92</v>
       </c>
       <c r="AC19" s="283">
-        <v>217.8</v>
+        <v>217.83</v>
       </c>
       <c r="AD19" s="284">
-        <v>214</v>
+        <v>214.04</v>
       </c>
       <c r="AE19" s="285">
-        <v>223.6</v>
+        <v>223.64</v>
       </c>
       <c r="AF19" s="286">
-        <v>285.60000000000002</v>
+        <v>285.55</v>
       </c>
       <c r="AG19" s="287">
-        <v>267.5</v>
+        <v>267.47000000000003</v>
       </c>
       <c r="AH19" s="288">
-        <v>265.3</v>
+        <v>265.33999999999997</v>
       </c>
       <c r="AI19" s="289">
-        <v>274.3</v>
+        <v>274.32</v>
       </c>
       <c r="AJ19" s="290">
-        <v>362.4</v>
+        <v>362.36</v>
       </c>
       <c r="AK19" s="291">
-        <v>352</v>
+        <v>352.01</v>
       </c>
       <c r="AL19" s="292">
-        <v>336.5</v>
+        <v>336.45</v>
       </c>
       <c r="AM19" s="293">
-        <v>341.6</v>
+        <v>341.56</v>
       </c>
       <c r="AN19" s="294">
-        <v>418.9</v>
+        <v>418.91</v>
       </c>
       <c r="AO19" s="295">
-        <v>428.3</v>
+        <v>428.25</v>
       </c>
       <c r="AP19" s="296">
-        <v>422.1</v>
+        <v>422.12</v>
       </c>
       <c r="AQ19" s="297">
-        <v>437.6</v>
+        <v>437.59</v>
       </c>
       <c r="AR19" s="298">
-        <v>529.29999999999995</v>
+        <v>529.26</v>
       </c>
       <c r="AS19" s="299">
         <v>527.5</v>
@@ -17309,59 +17309,59 @@
       </c>
     </row>
     <row r="20" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E20" s="6">
-        <v>52.1</v>
+        <v>52.06</v>
       </c>
       <c r="F20" s="7">
-        <v>49.5</v>
+        <v>49.52</v>
       </c>
       <c r="G20" s="8">
-        <v>48.2</v>
+        <v>48.17</v>
       </c>
       <c r="H20" s="9">
-        <v>63</v>
+        <v>62.97</v>
       </c>
       <c r="I20" s="10">
-        <v>68.3</v>
+        <v>68.33</v>
       </c>
       <c r="J20" s="11">
-        <v>57</v>
+        <v>57.01</v>
       </c>
       <c r="K20" s="12">
-        <v>55.4</v>
+        <v>55.37</v>
       </c>
       <c r="L20" s="13">
-        <v>72.3</v>
+        <v>72.28</v>
       </c>
       <c r="M20" s="14">
-        <v>75.7</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="N20" s="15">
-        <v>67.400000000000006</v>
+        <v>67.42</v>
       </c>
       <c r="O20" s="16">
-        <v>68.400000000000006</v>
+        <v>68.38</v>
       </c>
       <c r="P20" s="17">
-        <v>92.6</v>
+        <v>92.64</v>
       </c>
       <c r="Q20" s="18">
-        <v>88.5</v>
+        <v>88.47</v>
       </c>
       <c r="R20" s="19">
-        <v>87</v>
+        <v>86.99</v>
       </c>
       <c r="S20" s="20">
         <v>106.7</v>
@@ -17370,76 +17370,76 @@
         <v>135.69999999999999</v>
       </c>
       <c r="U20" s="22">
-        <v>149.30000000000001</v>
+        <v>149.32</v>
       </c>
       <c r="V20" s="23">
-        <v>147.19999999999999</v>
+        <v>147.15</v>
       </c>
       <c r="W20" s="24">
-        <v>139</v>
+        <v>138.94999999999999</v>
       </c>
       <c r="X20" s="25">
-        <v>176.8</v>
+        <v>176.84</v>
       </c>
       <c r="Y20" s="26">
-        <v>169.5</v>
+        <v>169.51</v>
       </c>
       <c r="Z20" s="27">
-        <v>157</v>
+        <v>157.02000000000001</v>
       </c>
       <c r="AA20" s="28">
-        <v>164.1</v>
+        <v>164.14</v>
       </c>
       <c r="AB20" s="29">
-        <v>203.1</v>
+        <v>203.11</v>
       </c>
       <c r="AC20" s="30">
-        <v>195.3</v>
+        <v>195.25</v>
       </c>
       <c r="AD20" s="31">
-        <v>188.9</v>
+        <v>188.94</v>
       </c>
       <c r="AE20" s="32">
-        <v>197.7</v>
+        <v>197.65</v>
       </c>
       <c r="AF20" s="33">
-        <v>256.10000000000002</v>
+        <v>256.05</v>
       </c>
       <c r="AG20" s="34">
-        <v>240.7</v>
+        <v>240.72</v>
       </c>
       <c r="AH20" s="35">
-        <v>232.8</v>
+        <v>232.76</v>
       </c>
       <c r="AI20" s="36">
-        <v>240.1</v>
+        <v>240.08</v>
       </c>
       <c r="AJ20" s="37">
-        <v>326.3</v>
+        <v>326.25</v>
       </c>
       <c r="AK20" s="38">
-        <v>317.10000000000002</v>
+        <v>317.12</v>
       </c>
       <c r="AL20" s="39">
-        <v>296.5</v>
+        <v>296.48</v>
       </c>
       <c r="AM20" s="40">
-        <v>296.8</v>
+        <v>296.83999999999997</v>
       </c>
       <c r="AN20" s="41">
-        <v>366.6</v>
+        <v>366.61</v>
       </c>
       <c r="AO20" s="42">
-        <v>385.7</v>
+        <v>385.69</v>
       </c>
       <c r="AP20" s="43">
-        <v>373.1</v>
+        <v>373.08</v>
       </c>
       <c r="AQ20" s="44">
         <v>378.4</v>
       </c>
       <c r="AR20" s="45">
-        <v>460.6</v>
+        <v>460.61</v>
       </c>
       <c r="AS20" s="46">
         <v>476.4</v>
@@ -18751,13 +18751,13 @@
       </c>
     </row>
     <row r="22" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -19445,124 +19445,124 @@
         <v>256</v>
       </c>
       <c r="E23" s="259">
-        <v>9.4</v>
+        <v>9.43</v>
       </c>
       <c r="F23" s="260">
-        <v>8.8000000000000007</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="G23" s="261">
-        <v>8.4</v>
+        <v>8.35</v>
       </c>
       <c r="H23" s="262">
         <v>9</v>
       </c>
       <c r="I23" s="263">
-        <v>9.8000000000000007</v>
+        <v>9.81</v>
       </c>
       <c r="J23" s="264">
-        <v>10.6</v>
+        <v>10.57</v>
       </c>
       <c r="K23" s="265">
-        <v>9.4</v>
+        <v>9.41</v>
       </c>
       <c r="L23" s="266">
-        <v>10.3</v>
+        <v>10.25</v>
       </c>
       <c r="M23" s="267">
-        <v>10.4</v>
+        <v>10.43</v>
       </c>
       <c r="N23" s="268">
-        <v>14.1</v>
+        <v>14.13</v>
       </c>
       <c r="O23" s="269">
-        <v>13.3</v>
+        <v>13.31</v>
       </c>
       <c r="P23" s="270">
-        <v>11.8</v>
+        <v>11.76</v>
       </c>
       <c r="Q23" s="271">
-        <v>12.3</v>
+        <v>12.31</v>
       </c>
       <c r="R23" s="272">
-        <v>13.3</v>
+        <v>13.25</v>
       </c>
       <c r="S23" s="273">
-        <v>14.2</v>
+        <v>14.21</v>
       </c>
       <c r="T23" s="274">
-        <v>14.9</v>
+        <v>14.86</v>
       </c>
       <c r="U23" s="275">
-        <v>14.7</v>
+        <v>14.68</v>
       </c>
       <c r="V23" s="276">
-        <v>14.9</v>
+        <v>14.94</v>
       </c>
       <c r="W23" s="277">
-        <v>14.4</v>
+        <v>14.39</v>
       </c>
       <c r="X23" s="278">
         <v>16.7</v>
       </c>
       <c r="Y23" s="279">
-        <v>16.2</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="Z23" s="280">
-        <v>19.600000000000001</v>
+        <v>19.57</v>
       </c>
       <c r="AA23" s="281">
-        <v>19.899999999999999</v>
+        <v>19.86</v>
       </c>
       <c r="AB23" s="282">
-        <v>18.8</v>
+        <v>18.82</v>
       </c>
       <c r="AC23" s="283">
-        <v>22.6</v>
+        <v>22.58</v>
       </c>
       <c r="AD23" s="284">
         <v>25.1</v>
       </c>
       <c r="AE23" s="285">
-        <v>26</v>
+        <v>25.99</v>
       </c>
       <c r="AF23" s="286">
         <v>29.5</v>
       </c>
       <c r="AG23" s="287">
-        <v>26.8</v>
+        <v>26.75</v>
       </c>
       <c r="AH23" s="288">
-        <v>32.6</v>
+        <v>32.58</v>
       </c>
       <c r="AI23" s="289">
-        <v>34.200000000000003</v>
+        <v>34.24</v>
       </c>
       <c r="AJ23" s="290">
-        <v>36.1</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="AK23" s="291">
-        <v>34.9</v>
+        <v>34.89</v>
       </c>
       <c r="AL23" s="292">
-        <v>40</v>
+        <v>39.97</v>
       </c>
       <c r="AM23" s="293">
-        <v>44.7</v>
+        <v>44.72</v>
       </c>
       <c r="AN23" s="294">
         <v>52.3</v>
       </c>
       <c r="AO23" s="295">
-        <v>42.6</v>
+        <v>42.56</v>
       </c>
       <c r="AP23" s="296">
-        <v>49</v>
+        <v>49.04</v>
       </c>
       <c r="AQ23" s="297">
-        <v>59.2</v>
+        <v>59.19</v>
       </c>
       <c r="AR23" s="298">
-        <v>68.7</v>
+        <v>68.66</v>
       </c>
       <c r="AS23" s="299">
         <v>51.1</v>
@@ -20193,110 +20193,110 @@
       </c>
     </row>
     <row r="24" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E24" s="6">
-        <v>-5.7</v>
+        <v>-5.67</v>
       </c>
       <c r="F24" s="7">
-        <v>16.600000000000001</v>
+        <v>16.62</v>
       </c>
       <c r="G24" s="8">
         <v>10.9</v>
       </c>
       <c r="H24" s="9">
-        <v>4.4000000000000004</v>
+        <v>4.43</v>
       </c>
       <c r="I24" s="10">
-        <v>-8.6</v>
+        <v>-8.61</v>
       </c>
       <c r="J24" s="11">
-        <v>25.9</v>
+        <v>25.92</v>
       </c>
       <c r="K24" s="12">
-        <v>12.1</v>
+        <v>12.12</v>
       </c>
       <c r="L24" s="13">
-        <v>8.9</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="M24" s="14">
-        <v>-5.2</v>
+        <v>-5.24</v>
       </c>
       <c r="N24" s="15">
-        <v>27.1</v>
+        <v>27.07</v>
       </c>
       <c r="O24" s="16">
-        <v>15.3</v>
+        <v>15.31</v>
       </c>
       <c r="P24" s="17">
-        <v>14.4</v>
+        <v>14.35</v>
       </c>
       <c r="Q24" s="18">
-        <v>9.1999999999999993</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="R24" s="19">
-        <v>50.9</v>
+        <v>50.92</v>
       </c>
       <c r="S24" s="20">
-        <v>17.399999999999999</v>
+        <v>17.36</v>
       </c>
       <c r="T24" s="21">
-        <v>19.899999999999999</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="U24" s="22">
-        <v>-24.5</v>
+        <v>-24.45</v>
       </c>
       <c r="V24" s="23">
-        <v>49</v>
+        <v>48.99</v>
       </c>
       <c r="W24" s="24">
-        <v>39.9</v>
+        <v>39.909999999999997</v>
       </c>
       <c r="X24" s="25">
-        <v>49.6</v>
+        <v>49.56</v>
       </c>
       <c r="Y24" s="26">
-        <v>-10.5</v>
+        <v>-10.52</v>
       </c>
       <c r="Z24" s="27">
-        <v>67.900000000000006</v>
+        <v>67.94</v>
       </c>
       <c r="AA24" s="28">
-        <v>32</v>
+        <v>32.03</v>
       </c>
       <c r="AB24" s="29">
-        <v>33.299999999999997</v>
+        <v>33.29</v>
       </c>
       <c r="AC24" s="30">
         <v>0.2</v>
       </c>
       <c r="AD24" s="31">
-        <v>108.3</v>
+        <v>108.25</v>
       </c>
       <c r="AE24" s="32">
-        <v>72.8</v>
+        <v>72.83</v>
       </c>
       <c r="AF24" s="33">
-        <v>50</v>
+        <v>50.03</v>
       </c>
       <c r="AG24" s="34">
-        <v>4.4000000000000004</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="AH24" s="35">
-        <v>116.8</v>
+        <v>116.76</v>
       </c>
       <c r="AI24" s="36">
-        <v>119</v>
+        <v>119.02</v>
       </c>
       <c r="AJ24" s="37">
         <v>51.5</v>
@@ -20305,25 +20305,25 @@
         <v>26.5</v>
       </c>
       <c r="AL24" s="39">
-        <v>182.9</v>
+        <v>182.93</v>
       </c>
       <c r="AM24" s="40">
-        <v>154.6</v>
+        <v>154.58000000000001</v>
       </c>
       <c r="AN24" s="41">
-        <v>94.7</v>
+        <v>94.73</v>
       </c>
       <c r="AO24" s="42">
-        <v>21.8</v>
+        <v>21.76</v>
       </c>
       <c r="AP24" s="43">
-        <v>217.3</v>
+        <v>217.31</v>
       </c>
       <c r="AQ24" s="44">
         <v>228.6</v>
       </c>
       <c r="AR24" s="45">
-        <v>194.7</v>
+        <v>194.67</v>
       </c>
       <c r="AS24" s="46">
         <v>71.7</v>
@@ -20967,124 +20967,124 @@
         <v>256</v>
       </c>
       <c r="E25" s="259">
-        <v>5.8</v>
+        <v>5.84</v>
       </c>
       <c r="F25" s="260">
-        <v>9.8000000000000007</v>
+        <v>9.82</v>
       </c>
       <c r="G25" s="261">
-        <v>6.3</v>
+        <v>6.34</v>
       </c>
       <c r="H25" s="262">
-        <v>6.1</v>
+        <v>6.09</v>
       </c>
       <c r="I25" s="263">
         <v>7.2</v>
       </c>
       <c r="J25" s="264">
-        <v>11</v>
+        <v>11.03</v>
       </c>
       <c r="K25" s="265">
-        <v>8</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="L25" s="266">
-        <v>9.1999999999999993</v>
+        <v>9.16</v>
       </c>
       <c r="M25" s="267">
-        <v>9</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="N25" s="268">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="O25" s="269">
-        <v>13.5</v>
+        <v>13.49</v>
       </c>
       <c r="P25" s="270">
-        <v>14.1</v>
+        <v>14.07</v>
       </c>
       <c r="Q25" s="271">
-        <v>14.8</v>
+        <v>14.79</v>
       </c>
       <c r="R25" s="272">
-        <v>20</v>
+        <v>20.03</v>
       </c>
       <c r="S25" s="273">
-        <v>17.600000000000001</v>
+        <v>17.59</v>
       </c>
       <c r="T25" s="274">
         <v>17.8</v>
       </c>
       <c r="U25" s="275">
-        <v>18.600000000000001</v>
+        <v>18.57</v>
       </c>
       <c r="V25" s="276">
-        <v>26.6</v>
+        <v>26.56</v>
       </c>
       <c r="W25" s="277">
-        <v>20</v>
+        <v>20.02</v>
       </c>
       <c r="X25" s="278">
-        <v>20.5</v>
+        <v>20.48</v>
       </c>
       <c r="Y25" s="279">
         <v>22.6</v>
       </c>
       <c r="Z25" s="280">
-        <v>36.799999999999997</v>
+        <v>36.770000000000003</v>
       </c>
       <c r="AA25" s="281">
-        <v>33.9</v>
+        <v>33.93</v>
       </c>
       <c r="AB25" s="282">
-        <v>33.5</v>
+        <v>33.450000000000003</v>
       </c>
       <c r="AC25" s="283">
-        <v>32</v>
+        <v>32.03</v>
       </c>
       <c r="AD25" s="284">
-        <v>68.7</v>
+        <v>68.66</v>
       </c>
       <c r="AE25" s="285">
-        <v>56</v>
+        <v>55.97</v>
       </c>
       <c r="AF25" s="286">
-        <v>60.6</v>
+        <v>60.59</v>
       </c>
       <c r="AG25" s="287">
-        <v>46.5</v>
+        <v>46.45</v>
       </c>
       <c r="AH25" s="288">
-        <v>79.2</v>
+        <v>79.239999999999995</v>
       </c>
       <c r="AI25" s="289">
-        <v>78.099999999999994</v>
+        <v>78.14</v>
       </c>
       <c r="AJ25" s="290">
-        <v>86.5</v>
+        <v>86.51</v>
       </c>
       <c r="AK25" s="291">
-        <v>64.8</v>
+        <v>64.75</v>
       </c>
       <c r="AL25" s="292">
-        <v>128</v>
+        <v>128.04</v>
       </c>
       <c r="AM25" s="293">
-        <v>117.9</v>
+        <v>117.87</v>
       </c>
       <c r="AN25" s="294">
-        <v>130.4</v>
+        <v>130.37</v>
       </c>
       <c r="AO25" s="295">
-        <v>85.7</v>
+        <v>85.71</v>
       </c>
       <c r="AP25" s="296">
-        <v>175.5</v>
+        <v>175.46</v>
       </c>
       <c r="AQ25" s="297">
         <v>179.6</v>
       </c>
       <c r="AR25" s="298">
-        <v>148</v>
+        <v>147.99</v>
       </c>
       <c r="AS25" s="299">
         <v>113.2</v>
@@ -21715,137 +21715,137 @@
       </c>
     </row>
     <row r="26" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E26" s="6">
-        <v>4</v>
+        <v>3.97</v>
       </c>
       <c r="F26" s="7">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="G26" s="8">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="H26" s="9">
-        <v>4</v>
+        <v>3.99</v>
       </c>
       <c r="I26" s="10">
-        <v>4.4000000000000004</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="J26" s="11">
-        <v>7.8</v>
+        <v>7.83</v>
       </c>
       <c r="K26" s="12">
-        <v>5.0999999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="L26" s="13">
-        <v>6.1</v>
+        <v>6.12</v>
       </c>
       <c r="M26" s="14">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="N26" s="15">
-        <v>10</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="O26" s="16">
-        <v>8.6999999999999993</v>
+        <v>8.68</v>
       </c>
       <c r="P26" s="17">
-        <v>8.8000000000000007</v>
+        <v>8.81</v>
       </c>
       <c r="Q26" s="18">
-        <v>9.1</v>
+        <v>9.06</v>
       </c>
       <c r="R26" s="19">
-        <v>13.9</v>
+        <v>13.85</v>
       </c>
       <c r="S26" s="20">
         <v>10.6</v>
       </c>
       <c r="T26" s="21">
-        <v>10.9</v>
+        <v>10.94</v>
       </c>
       <c r="U26" s="22">
-        <v>10</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="V26" s="23">
-        <v>19.8</v>
+        <v>19.82</v>
       </c>
       <c r="W26" s="24">
-        <v>13.9</v>
+        <v>13.93</v>
       </c>
       <c r="X26" s="25">
-        <v>14.3</v>
+        <v>14.26</v>
       </c>
       <c r="Y26" s="26">
-        <v>14.4</v>
+        <v>14.43</v>
       </c>
       <c r="Z26" s="27">
-        <v>28.1</v>
+        <v>28.06</v>
       </c>
       <c r="AA26" s="28">
-        <v>24.5</v>
+        <v>24.52</v>
       </c>
       <c r="AB26" s="29">
-        <v>20.7</v>
+        <v>20.65</v>
       </c>
       <c r="AC26" s="30">
-        <v>16.899999999999999</v>
+        <v>16.86</v>
       </c>
       <c r="AD26" s="31">
-        <v>48.8</v>
+        <v>48.78</v>
       </c>
       <c r="AE26" s="32">
-        <v>32</v>
+        <v>31.95</v>
       </c>
       <c r="AF26" s="33">
-        <v>28.3</v>
+        <v>28.31</v>
       </c>
       <c r="AG26" s="34">
-        <v>20</v>
+        <v>20.03</v>
       </c>
       <c r="AH26" s="35">
-        <v>50.9</v>
+        <v>50.86</v>
       </c>
       <c r="AI26" s="36">
-        <v>47.6</v>
+        <v>47.59</v>
       </c>
       <c r="AJ26" s="37">
         <v>48.8</v>
       </c>
       <c r="AK26" s="38">
-        <v>31.9</v>
+        <v>31.91</v>
       </c>
       <c r="AL26" s="39">
-        <v>84.8</v>
+        <v>84.81</v>
       </c>
       <c r="AM26" s="40">
-        <v>70.8</v>
+        <v>70.83</v>
       </c>
       <c r="AN26" s="41">
-        <v>78.2</v>
+        <v>78.22</v>
       </c>
       <c r="AO26" s="42">
-        <v>40.700000000000003</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="AP26" s="43">
-        <v>115.8</v>
+        <v>115.77</v>
       </c>
       <c r="AQ26" s="44">
-        <v>122.4</v>
+        <v>122.42</v>
       </c>
       <c r="AR26" s="45">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
       <c r="AS26" s="46">
         <v>61.1</v>
@@ -22489,124 +22489,124 @@
         <v>256</v>
       </c>
       <c r="E27" s="259">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="F27" s="260">
-        <v>2.2999999999999998</v>
+        <v>2.31</v>
       </c>
       <c r="G27" s="261">
         <v>1.9</v>
       </c>
       <c r="H27" s="262">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="I27" s="263">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="J27" s="264">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K27" s="265">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="L27" s="266">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="M27" s="267">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="N27" s="268">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="O27" s="269">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="P27" s="270">
-        <v>4.9000000000000004</v>
+        <v>4.87</v>
       </c>
       <c r="Q27" s="271">
-        <v>5.3</v>
+        <v>5.29</v>
       </c>
       <c r="R27" s="272">
-        <v>5.8</v>
+        <v>5.81</v>
       </c>
       <c r="S27" s="273">
-        <v>6.6</v>
+        <v>6.58</v>
       </c>
       <c r="T27" s="274">
-        <v>6.3</v>
+        <v>6.32</v>
       </c>
       <c r="U27" s="275">
-        <v>8.1</v>
+        <v>8.11</v>
       </c>
       <c r="V27" s="276">
         <v>6.2</v>
       </c>
       <c r="W27" s="277">
-        <v>5.5</v>
+        <v>5.54</v>
       </c>
       <c r="X27" s="278">
-        <v>5.6</v>
+        <v>5.62</v>
       </c>
       <c r="Y27" s="279">
-        <v>7.5</v>
+        <v>7.47</v>
       </c>
       <c r="Z27" s="280">
         <v>8</v>
       </c>
       <c r="AA27" s="281">
-        <v>8.6999999999999993</v>
+        <v>8.65</v>
       </c>
       <c r="AB27" s="282">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="AC27" s="283">
-        <v>14.3</v>
+        <v>14.25</v>
       </c>
       <c r="AD27" s="284">
         <v>18.8</v>
       </c>
       <c r="AE27" s="285">
-        <v>22.9</v>
+        <v>22.91</v>
       </c>
       <c r="AF27" s="286">
-        <v>31.2</v>
+        <v>31.16</v>
       </c>
       <c r="AG27" s="287">
-        <v>24.7</v>
+        <v>24.71</v>
       </c>
       <c r="AH27" s="288">
-        <v>26.4</v>
+        <v>26.39</v>
       </c>
       <c r="AI27" s="289">
-        <v>28.4</v>
+        <v>28.42</v>
       </c>
       <c r="AJ27" s="290">
-        <v>35.700000000000003</v>
+        <v>35.72</v>
       </c>
       <c r="AK27" s="291">
-        <v>30.5</v>
+        <v>30.48</v>
       </c>
       <c r="AL27" s="292">
-        <v>40.700000000000003</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="AM27" s="293">
-        <v>44.4</v>
+        <v>44.38</v>
       </c>
       <c r="AN27" s="294">
-        <v>49.4</v>
+        <v>49.39</v>
       </c>
       <c r="AO27" s="295">
         <v>41.9</v>
       </c>
       <c r="AP27" s="296">
-        <v>56.3</v>
+        <v>56.29</v>
       </c>
       <c r="AQ27" s="297">
-        <v>53.6</v>
+        <v>53.58</v>
       </c>
       <c r="AR27" s="298">
-        <v>50.9</v>
+        <v>50.85</v>
       </c>
       <c r="AS27" s="299">
         <v>48.2</v>
@@ -23237,137 +23237,137 @@
       </c>
     </row>
     <row r="28" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E28" s="6">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F28" s="7">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G28" s="8">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H28" s="9">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I28" s="10">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J28" s="11">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K28" s="12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="L28" s="13">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="M28" s="14">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="N28" s="15">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="O28" s="16">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="P28" s="17">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="Q28" s="18">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="R28" s="19">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="S28" s="20">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="T28" s="21">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="U28" s="22">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="V28" s="23">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="W28" s="24">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X28" s="25">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="Y28" s="26">
         <v>0.7</v>
       </c>
       <c r="Z28" s="27">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="AA28" s="28">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AB28" s="29">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="AC28" s="30">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AD28" s="31">
-        <v>1.1000000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="AE28" s="32">
-        <v>1.1000000000000001</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AF28" s="33">
-        <v>1.1000000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="AG28" s="34">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AH28" s="35">
         <v>2</v>
       </c>
       <c r="AI28" s="36">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AJ28" s="37">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="AK28" s="38">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="AL28" s="39">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="AM28" s="40">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="AN28" s="41">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="AO28" s="42">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AP28" s="43">
         <v>3.4</v>
       </c>
       <c r="AQ28" s="44">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="AR28" s="45">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="AS28" s="46">
         <v>4</v>
@@ -24011,124 +24011,124 @@
         <v>256</v>
       </c>
       <c r="E29" s="259">
-        <v>-11.5</v>
+        <v>-11.51</v>
       </c>
       <c r="F29" s="260">
         <v>6.8</v>
       </c>
       <c r="G29" s="261">
-        <v>4.5999999999999996</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="H29" s="262">
-        <v>-1.7</v>
+        <v>-1.66</v>
       </c>
       <c r="I29" s="263">
-        <v>-15.8</v>
+        <v>-15.81</v>
       </c>
       <c r="J29" s="264">
-        <v>14.9</v>
+        <v>14.89</v>
       </c>
       <c r="K29" s="265">
-        <v>4.0999999999999996</v>
+        <v>4.09</v>
       </c>
       <c r="L29" s="266">
-        <v>-0.3</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="M29" s="267">
-        <v>-14.3</v>
+        <v>-14.28</v>
       </c>
       <c r="N29" s="268">
-        <v>13.1</v>
+        <v>13.05</v>
       </c>
       <c r="O29" s="269">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="P29" s="270">
-        <v>0.3</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q29" s="271">
-        <v>-5.6</v>
+        <v>-5.57</v>
       </c>
       <c r="R29" s="272">
-        <v>30.9</v>
+        <v>30.89</v>
       </c>
       <c r="S29" s="273">
-        <v>-0.2</v>
+        <v>-0.23</v>
       </c>
       <c r="T29" s="274">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U29" s="275">
-        <v>-43</v>
+        <v>-43.02</v>
       </c>
       <c r="V29" s="276">
-        <v>22.4</v>
+        <v>22.43</v>
       </c>
       <c r="W29" s="277">
-        <v>19.899999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="X29" s="278">
-        <v>29.1</v>
+        <v>29.08</v>
       </c>
       <c r="Y29" s="279">
-        <v>-33.1</v>
+        <v>-33.119999999999997</v>
       </c>
       <c r="Z29" s="280">
-        <v>31.2</v>
+        <v>31.17</v>
       </c>
       <c r="AA29" s="281">
         <v>-1.9</v>
       </c>
       <c r="AB29" s="282">
-        <v>-0.2</v>
+        <v>-0.16</v>
       </c>
       <c r="AC29" s="283">
-        <v>-31.8</v>
+        <v>-31.83</v>
       </c>
       <c r="AD29" s="284">
-        <v>39.6</v>
+        <v>39.590000000000003</v>
       </c>
       <c r="AE29" s="285">
-        <v>16.899999999999999</v>
+        <v>16.86</v>
       </c>
       <c r="AF29" s="286">
-        <v>-10.6</v>
+        <v>-10.56</v>
       </c>
       <c r="AG29" s="287">
-        <v>-42.1</v>
+        <v>-42.09</v>
       </c>
       <c r="AH29" s="288">
-        <v>37.5</v>
+        <v>37.520000000000003</v>
       </c>
       <c r="AI29" s="289">
-        <v>40.9</v>
+        <v>40.880000000000003</v>
       </c>
       <c r="AJ29" s="290">
-        <v>-35</v>
+        <v>-35.01</v>
       </c>
       <c r="AK29" s="291">
-        <v>-38.299999999999997</v>
+        <v>-38.25</v>
       </c>
       <c r="AL29" s="292">
-        <v>54.9</v>
+        <v>54.89</v>
       </c>
       <c r="AM29" s="293">
-        <v>36.700000000000003</v>
+        <v>36.71</v>
       </c>
       <c r="AN29" s="294">
-        <v>-35.6</v>
+        <v>-35.64</v>
       </c>
       <c r="AO29" s="295">
-        <v>-64</v>
+        <v>-63.95</v>
       </c>
       <c r="AP29" s="296">
-        <v>41.9</v>
+        <v>41.85</v>
       </c>
       <c r="AQ29" s="297">
         <v>49</v>
       </c>
       <c r="AR29" s="298">
-        <v>46.7</v>
+        <v>46.68</v>
       </c>
       <c r="AS29" s="299">
         <v>-41.6</v>
@@ -24759,62 +24759,62 @@
       </c>
     </row>
     <row r="30" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="6">
-        <v>1.1000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="F30" s="7">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G30" s="8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H30" s="9">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="I30" s="10">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="J30" s="11">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="K30" s="12">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L30" s="13">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="M30" s="14">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="N30" s="15">
-        <v>3.6</v>
+        <v>3.61</v>
       </c>
       <c r="O30" s="16">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="P30" s="17">
-        <v>4.5</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="Q30" s="18">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="R30" s="19">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="S30" s="20">
-        <v>6.2</v>
+        <v>6.16</v>
       </c>
       <c r="T30" s="21">
         <v>5.0999999999999996</v>
@@ -24823,61 +24823,61 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="V30" s="23">
-        <v>9.6</v>
+        <v>9.61</v>
       </c>
       <c r="W30" s="24">
-        <v>10.4</v>
+        <v>10.42</v>
       </c>
       <c r="X30" s="25">
-        <v>11.6</v>
+        <v>11.59</v>
       </c>
       <c r="Y30" s="26">
-        <v>9.1</v>
+        <v>9.08</v>
       </c>
       <c r="Z30" s="27">
-        <v>13.8</v>
+        <v>13.78</v>
       </c>
       <c r="AA30" s="28">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="AB30" s="29">
-        <v>19.899999999999999</v>
+        <v>19.89</v>
       </c>
       <c r="AC30" s="30">
-        <v>17.600000000000001</v>
+        <v>17.57</v>
       </c>
       <c r="AD30" s="31">
         <v>21.7</v>
       </c>
       <c r="AE30" s="32">
-        <v>23.5</v>
+        <v>23.54</v>
       </c>
       <c r="AF30" s="33">
-        <v>27.2</v>
+        <v>27.19</v>
       </c>
       <c r="AG30" s="34">
-        <v>22.4</v>
+        <v>22.43</v>
       </c>
       <c r="AH30" s="35">
-        <v>28.6</v>
+        <v>28.64</v>
       </c>
       <c r="AI30" s="36">
-        <v>29.5</v>
+        <v>29.54</v>
       </c>
       <c r="AJ30" s="37">
         <v>39.1</v>
       </c>
       <c r="AK30" s="38">
-        <v>31.6</v>
+        <v>31.55</v>
       </c>
       <c r="AL30" s="39">
-        <v>42</v>
+        <v>41.95</v>
       </c>
       <c r="AM30" s="40">
-        <v>41.8</v>
+        <v>41.76</v>
       </c>
       <c r="AN30" s="41">
-        <v>56.4</v>
+        <v>56.44</v>
       </c>
       <c r="AO30" s="42">
         <v>42.5</v>
@@ -24886,10 +24886,10 @@
         <v>55.8</v>
       </c>
       <c r="AQ30" s="44">
-        <v>64.5</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="AR30" s="45">
-        <v>72</v>
+        <v>71.98</v>
       </c>
       <c r="AS30" s="46">
         <v>61.5</v>
@@ -25533,124 +25533,124 @@
         <v>256</v>
       </c>
       <c r="E31" s="259">
-        <v>7.6</v>
+        <v>7.55</v>
       </c>
       <c r="F31" s="260">
-        <v>7.8</v>
+        <v>7.84</v>
       </c>
       <c r="G31" s="261">
-        <v>7.1</v>
+        <v>7.09</v>
       </c>
       <c r="H31" s="262">
-        <v>7.4</v>
+        <v>7.44</v>
       </c>
       <c r="I31" s="263">
-        <v>9.6999999999999993</v>
+        <v>9.74</v>
       </c>
       <c r="J31" s="264">
-        <v>12.8</v>
+        <v>12.79</v>
       </c>
       <c r="K31" s="265">
         <v>9.1999999999999993</v>
       </c>
       <c r="L31" s="266">
-        <v>10.4</v>
+        <v>10.39</v>
       </c>
       <c r="M31" s="267">
-        <v>11.7</v>
+        <v>11.71</v>
       </c>
       <c r="N31" s="268">
         <v>13</v>
       </c>
       <c r="O31" s="269">
-        <v>15.6</v>
+        <v>15.64</v>
       </c>
       <c r="P31" s="270">
-        <v>16.7</v>
+        <v>16.71</v>
       </c>
       <c r="Q31" s="271">
-        <v>17.399999999999999</v>
+        <v>17.41</v>
       </c>
       <c r="R31" s="272">
-        <v>20.7</v>
+        <v>20.69</v>
       </c>
       <c r="S31" s="273">
-        <v>20.399999999999999</v>
+        <v>20.43</v>
       </c>
       <c r="T31" s="274">
-        <v>17.5</v>
+        <v>17.46</v>
       </c>
       <c r="U31" s="275">
-        <v>17.600000000000001</v>
+        <v>17.63</v>
       </c>
       <c r="V31" s="276">
-        <v>22.3</v>
+        <v>22.32</v>
       </c>
       <c r="W31" s="277">
-        <v>24.7</v>
+        <v>24.68</v>
       </c>
       <c r="X31" s="278">
-        <v>26.9</v>
+        <v>26.94</v>
       </c>
       <c r="Y31" s="279">
-        <v>23</v>
+        <v>22.97</v>
       </c>
       <c r="Z31" s="280">
-        <v>28.9</v>
+        <v>28.87</v>
       </c>
       <c r="AA31" s="281">
-        <v>30.5</v>
+        <v>30.54</v>
       </c>
       <c r="AB31" s="282">
-        <v>36.799999999999997</v>
+        <v>36.76</v>
       </c>
       <c r="AC31" s="283">
-        <v>38.4</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="AD31" s="284">
         <v>46.3</v>
       </c>
       <c r="AE31" s="285">
-        <v>47.5</v>
+        <v>47.48</v>
       </c>
       <c r="AF31" s="286">
-        <v>62</v>
+        <v>62.04</v>
       </c>
       <c r="AG31" s="287">
         <v>49.9</v>
       </c>
       <c r="AH31" s="288">
-        <v>51.4</v>
+        <v>51.42</v>
       </c>
       <c r="AI31" s="289">
-        <v>81.099999999999994</v>
+        <v>81.14</v>
       </c>
       <c r="AJ31" s="290">
-        <v>76.099999999999994</v>
+        <v>76.06</v>
       </c>
       <c r="AK31" s="291">
-        <v>81.2</v>
+        <v>81.23</v>
       </c>
       <c r="AL31" s="292">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
       <c r="AM31" s="293">
-        <v>99.9</v>
+        <v>99.94</v>
       </c>
       <c r="AN31" s="294">
-        <v>108.8</v>
+        <v>108.81</v>
       </c>
       <c r="AO31" s="295">
-        <v>97.8</v>
+        <v>97.79</v>
       </c>
       <c r="AP31" s="296">
-        <v>123.6</v>
+        <v>123.61</v>
       </c>
       <c r="AQ31" s="297">
-        <v>133.4</v>
+        <v>133.38</v>
       </c>
       <c r="AR31" s="298">
-        <v>142</v>
+        <v>141.97999999999999</v>
       </c>
       <c r="AS31" s="299">
         <v>124.2</v>
@@ -26281,134 +26281,134 @@
       </c>
     </row>
     <row r="32" spans="1:253" ht="23.25" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>255</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>256</v>
       </c>
       <c r="E32" s="6">
-        <v>-0.4</v>
+        <v>-0.43</v>
       </c>
       <c r="F32" s="7">
-        <v>-0.7</v>
+        <v>-0.68</v>
       </c>
       <c r="G32" s="8">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="H32" s="9">
         <v>0.8</v>
       </c>
       <c r="I32" s="10">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="J32" s="11">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="K32" s="12">
-        <v>-0.8</v>
+        <v>-0.77</v>
       </c>
       <c r="L32" s="13">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M32" s="14">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="N32" s="15">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O32" s="16">
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="P32" s="17">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q32" s="18">
         <v>0.7</v>
       </c>
       <c r="R32" s="19">
-        <v>-0.3</v>
+        <v>-0.27</v>
       </c>
       <c r="S32" s="20">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="T32" s="21">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="U32" s="22">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="V32" s="23">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="W32" s="24">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X32" s="25">
-        <v>5.2</v>
+        <v>5.19</v>
       </c>
       <c r="Y32" s="26">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="Z32" s="27">
-        <v>-1.5</v>
+        <v>-1.53</v>
       </c>
       <c r="AA32" s="28">
-        <v>-0.9</v>
+        <v>-0.94</v>
       </c>
       <c r="AB32" s="29">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="AC32" s="30">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="AD32" s="31">
-        <v>-2.6</v>
+        <v>-2.63</v>
       </c>
       <c r="AE32" s="32">
-        <v>-1.8</v>
+        <v>-1.83</v>
       </c>
       <c r="AF32" s="33">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AG32" s="34">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AH32" s="35">
-        <v>-5.4</v>
+        <v>-5.38</v>
       </c>
       <c r="AI32" s="36">
-        <v>-3.6</v>
+        <v>-3.58</v>
       </c>
       <c r="AJ32" s="37">
-        <v>-0.2</v>
+        <v>-0.22</v>
       </c>
       <c r="AK32" s="38">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="AL32" s="39">
-        <v>-4.0999999999999996</v>
+        <v>-4.07</v>
       </c>
       <c r="AM32" s="40">
-        <v>-3.3</v>
+        <v>-3.29</v>
       </c>
       <c r="AN32" s="41">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AO32" s="42">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AP32" s="43">
-        <v>-3.2</v>
+        <v>-3.17</v>
       </c>
       <c r="AQ32" s="44">
-        <v>-3.2</v>
+        <v>-3.24</v>
       </c>
       <c r="AR32" s="45">
         <v>0.1</v>
